--- a/New folder/Final-NSP3 Analogues-DLS team and Wenjie.xlsx
+++ b/New folder/Final-NSP3 Analogues-DLS team and Wenjie.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hadia\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hadia\OneDrive\Desktop\NSP3-MD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B290DE-58FB-4FEF-A660-0AC5152B852A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021791AB-CA3C-4FEE-9BE6-1E71EA5AF911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4BB83DB0-F0A9-495F-9B5B-34C1C8E516E9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>SMILES</t>
   </si>
@@ -44,73 +44,10 @@
     <t>MW</t>
   </si>
   <si>
-    <t xml:space="preserve"> CC1=C(C=CN1)C(NCC2=NC(C3=NNN=N3)=CS2)=O</t>
-  </si>
-  <si>
-    <t>CC1=C(N=CN1)C(NCC2=NC(C3=NNN=N3)=CS2)=O</t>
-  </si>
-  <si>
-    <t>O=C(NCC1=NC(C2=NNN=N2)=CS1)C(CC3)NC3=O</t>
-  </si>
-  <si>
-    <t>O=S1(CCC(NC(C2=CN(CC)C3=C(C=CC(C)=N3)C2=O)=O)C1)=O</t>
-  </si>
-  <si>
-    <t>O=C(NC(C1)CCS1(=O)=O)C2=NC(Br)=CC=C2</t>
-  </si>
-  <si>
-    <t>O=C(C1=CC=C(C=C(F)C=C2)C2=N1)NC(C3)CCS3(=O)=O</t>
-  </si>
-  <si>
-    <t>O=C(NC1=NC=CC(N1)=O)C2=NC(Br)=CC=C2</t>
-  </si>
-  <si>
-    <t>HA-006-01-01-F4</t>
-  </si>
-  <si>
-    <t>HA-006-02-01-F4</t>
-  </si>
-  <si>
-    <t>HA-006-03-01-F4</t>
-  </si>
-  <si>
-    <t>ED-001-01</t>
-  </si>
-  <si>
-    <t>ED-001-05</t>
-  </si>
-  <si>
-    <t>ED-001-07</t>
-  </si>
-  <si>
-    <t>ED-002-06</t>
-  </si>
-  <si>
     <t>Concentration (mM)</t>
   </si>
   <si>
     <t>RA number</t>
-  </si>
-  <si>
-    <t>RA-0188454-03</t>
-  </si>
-  <si>
-    <t>RA-0204946-01</t>
-  </si>
-  <si>
-    <t>RA-0204974-01</t>
-  </si>
-  <si>
-    <t>RA-0204975-01</t>
-  </si>
-  <si>
-    <t>RA-0204976-01</t>
-  </si>
-  <si>
-    <t>RA-0204977-01</t>
-  </si>
-  <si>
-    <t>RA-0204978-01</t>
   </si>
   <si>
     <r>
@@ -140,32 +77,98 @@
     <t>Volume (µL) (Wenjie)</t>
   </si>
   <si>
-    <t>100uL</t>
-  </si>
-  <si>
-    <t>40uL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 40uL</t>
-  </si>
-  <si>
-    <t>20mM</t>
-  </si>
-  <si>
-    <t>100mM</t>
-  </si>
-  <si>
     <t>Compound ID</t>
   </si>
   <si>
     <t>SI#</t>
+  </si>
+  <si>
+    <t>Well</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>CC1=C(C(NC2=CC=CC(C(OCC)=O)=N2)=O)C=CN1</t>
+  </si>
+  <si>
+    <t>HA-006-08-01</t>
+  </si>
+  <si>
+    <t>HA-006-09-01</t>
+  </si>
+  <si>
+    <t>O=C(C1=CN=C(N1)NC(C2=C(NC=N2)C)=O)OCC</t>
+  </si>
+  <si>
+    <t>O=C(C1=CN=C(N1)NC(C2NC(CC2)=O)=O)OCC</t>
+  </si>
+  <si>
+    <t>O=C(C1=CN=C(N1)NC(C2=C(NC=N2)C)=O)O</t>
+  </si>
+  <si>
+    <t>O=C(C1=CN=C(N1)NC(C2NC(CC2)=O)=O)O</t>
+  </si>
+  <si>
+    <t>RA-0205179-01</t>
+  </si>
+  <si>
+    <t>RA-0205180-01</t>
+  </si>
+  <si>
+    <t>RA-0205181-01</t>
+  </si>
+  <si>
+    <t>Mass (mg)</t>
+  </si>
+  <si>
+    <t>DMSO to add (mL)</t>
+  </si>
+  <si>
+    <t>concentration</t>
+  </si>
+  <si>
+    <t>HA-006-11-01-Aq</t>
+  </si>
+  <si>
+    <t>HA-006-12-01-Aq</t>
+  </si>
+  <si>
+    <t>HA-006-10-01-filtrate-H2O+MeOH</t>
+  </si>
+  <si>
+    <t>FOR CAR</t>
+  </si>
+  <si>
+    <t>HA-006-07-01</t>
+  </si>
+  <si>
+    <t>RA-0205182-01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,13 +182,25 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -200,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -208,6 +223,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,235 +571,329 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70EDCD3-8189-4E18-8F31-8499BDF72F1B}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="2"/>
     <col min="2" max="2" width="30.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="53.109375" customWidth="1"/>
-    <col min="6" max="6" width="25.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="23.5546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28.44140625" style="1" customWidth="1"/>
+    <col min="3" max="6" width="17.77734375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="30.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="53.109375" customWidth="1"/>
+    <col min="10" max="10" width="25.109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="23.5546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="28.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="3">
+        <v>273.29000000000002</v>
+      </c>
+      <c r="D2" s="3">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.183</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="3">
+        <v>100</v>
+      </c>
+      <c r="K2" s="3">
+        <v>10</v>
+      </c>
+      <c r="L2" s="4">
+        <v>20</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="6">
+        <v>263.26</v>
+      </c>
+      <c r="D3" s="6">
+        <v>5</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="6">
+        <v>100</v>
+      </c>
+      <c r="K3" s="6">
+        <v>10</v>
+      </c>
+      <c r="L3" s="7">
+        <v>20</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>289.32</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="C4" s="6">
+        <v>266.26</v>
+      </c>
+      <c r="D4" s="6">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.112</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="6">
         <v>100</v>
       </c>
-      <c r="G2" s="2">
+      <c r="K4" s="6">
         <v>10</v>
       </c>
-      <c r="H2" s="1">
+      <c r="L4" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>290.31</v>
-      </c>
-      <c r="F3" s="2">
-        <v>100</v>
-      </c>
-      <c r="G3" s="2">
-        <v>10</v>
-      </c>
-      <c r="H3" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="M4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>293.3</v>
-      </c>
-      <c r="F4" s="2">
-        <v>100</v>
-      </c>
-      <c r="G4" s="2">
-        <v>10</v>
-      </c>
-      <c r="H4" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="2">
+        <v>235.2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="2">
+        <v>100</v>
+      </c>
+      <c r="K5" s="2">
+        <v>10</v>
+      </c>
+      <c r="L5" s="1">
+        <v>20</v>
+      </c>
+      <c r="M5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>349.41</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2">
+        <v>238.2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="2">
+        <v>100</v>
+      </c>
+      <c r="K6" s="2">
+        <v>10</v>
+      </c>
+      <c r="L6" s="1">
+        <v>20</v>
+      </c>
+      <c r="M6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6">
-        <v>319.17</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2">
+        <v>245.24</v>
+      </c>
+      <c r="D7" s="2">
+        <v>7.3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="J7" s="2">
+        <v>100</v>
+      </c>
+      <c r="K7" s="2">
+        <v>10</v>
+      </c>
+      <c r="L7" s="1">
+        <v>20</v>
+      </c>
+      <c r="M7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <v>308.33</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="J8" s="2">
+        <v>100</v>
+      </c>
+      <c r="K8" s="2">
+        <v>10</v>
+      </c>
+      <c r="L8" s="1">
+        <v>20</v>
+      </c>
+      <c r="M8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <v>295.10000000000002</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="1" t="s">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J10" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F11" s="1"/>
+      <c r="C16" s="2">
+        <v>235.2</v>
+      </c>
+      <c r="D16" s="2">
+        <v>207</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" s="2">
+        <v>100</v>
+      </c>
+      <c r="K16" s="2">
+        <v>10</v>
+      </c>
+      <c r="L16" s="1">
+        <v>20</v>
+      </c>
+      <c r="M16" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>